--- a/Unity/Assets/Config/Excel/AbilityConfig/TutorialConfig/TutorialCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TutorialConfig/TutorialCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TutorialConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004B6351-8797-4F4A-A4CA-6ECBDF99D09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BE07CC-2A79-49C1-B2CC-FE12F9728A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="292">
   <si>
     <t>##var</t>
   </si>
@@ -150,13 +150,778 @@
   </si>
   <si>
     <t>Video_Weaken</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Alchemy1</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Alchemy2</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Alchemy3</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Bomb1</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Bomb2</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Bomb3</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Cannon1</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Cannon2</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Cannon3</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Crystal1</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Crystal2</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Crystal3</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Draco1</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Draco2</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Draco3</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Flame1</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Flame2</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Flame3</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Goblin1</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Goblin2</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Goblin3</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Golem1</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Golem2</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Golem3</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_IceTower1</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_IceTower2</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_IceTower3</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_MystOrb1</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_MystOrb2</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_MystOrb3</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Poison1</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Poison2</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Poison3</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Rocket1</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Rocket2</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Rocket3</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Scorpio1</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Scorpio2</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Scorpio3</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_SpeedTower1</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_SpeedTower2</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_SpeedTower3</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Thunder1</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Thunder2</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_Thunder3</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_XBow1</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_XBow2</t>
+  </si>
+  <si>
+    <t>ResVideo_Tower_XBow3</t>
+  </si>
+  <si>
+    <t>Video_Tower_Alchemy1</t>
+  </si>
+  <si>
+    <t>Video_Tower_Alchemy2</t>
+  </si>
+  <si>
+    <t>Video_Tower_Alchemy3</t>
+  </si>
+  <si>
+    <t>Video_Tower_Bomb1</t>
+  </si>
+  <si>
+    <t>Video_Tower_Bomb2</t>
+  </si>
+  <si>
+    <t>Video_Tower_Bomb3</t>
+  </si>
+  <si>
+    <t>Video_Tower_Cannon1</t>
+  </si>
+  <si>
+    <t>Video_Tower_Cannon2</t>
+  </si>
+  <si>
+    <t>Video_Tower_Cannon3</t>
+  </si>
+  <si>
+    <t>Video_Tower_Crystal1</t>
+  </si>
+  <si>
+    <t>Video_Tower_Crystal2</t>
+  </si>
+  <si>
+    <t>Video_Tower_Crystal3</t>
+  </si>
+  <si>
+    <t>Video_Tower_Draco1</t>
+  </si>
+  <si>
+    <t>Video_Tower_Draco2</t>
+  </si>
+  <si>
+    <t>Video_Tower_Draco3</t>
+  </si>
+  <si>
+    <t>Video_Tower_Flame1</t>
+  </si>
+  <si>
+    <t>Video_Tower_Flame2</t>
+  </si>
+  <si>
+    <t>Video_Tower_Flame3</t>
+  </si>
+  <si>
+    <t>Video_Tower_Goblin1</t>
+  </si>
+  <si>
+    <t>Video_Tower_Goblin2</t>
+  </si>
+  <si>
+    <t>Video_Tower_Goblin3</t>
+  </si>
+  <si>
+    <t>Video_Tower_Golem1</t>
+  </si>
+  <si>
+    <t>Video_Tower_Golem2</t>
+  </si>
+  <si>
+    <t>Video_Tower_Golem3</t>
+  </si>
+  <si>
+    <t>Video_Tower_IceTower1</t>
+  </si>
+  <si>
+    <t>Video_Tower_IceTower2</t>
+  </si>
+  <si>
+    <t>Video_Tower_IceTower3</t>
+  </si>
+  <si>
+    <t>Video_Tower_MystOrb1</t>
+  </si>
+  <si>
+    <t>Video_Tower_MystOrb2</t>
+  </si>
+  <si>
+    <t>Video_Tower_MystOrb3</t>
+  </si>
+  <si>
+    <t>Video_Tower_Poison1</t>
+  </si>
+  <si>
+    <t>Video_Tower_Poison2</t>
+  </si>
+  <si>
+    <t>Video_Tower_Poison3</t>
+  </si>
+  <si>
+    <t>Video_Tower_Rocket1</t>
+  </si>
+  <si>
+    <t>Video_Tower_Rocket2</t>
+  </si>
+  <si>
+    <t>Video_Tower_Rocket3</t>
+  </si>
+  <si>
+    <t>Video_Tower_Scorpio1</t>
+  </si>
+  <si>
+    <t>Video_Tower_Scorpio2</t>
+  </si>
+  <si>
+    <t>Video_Tower_Scorpio3</t>
+  </si>
+  <si>
+    <t>Video_Tower_SpeedTower1</t>
+  </si>
+  <si>
+    <t>Video_Tower_SpeedTower2</t>
+  </si>
+  <si>
+    <t>Video_Tower_SpeedTower3</t>
+  </si>
+  <si>
+    <t>Video_Tower_Thunder1</t>
+  </si>
+  <si>
+    <t>Video_Tower_Thunder2</t>
+  </si>
+  <si>
+    <t>Video_Tower_Thunder3</t>
+  </si>
+  <si>
+    <t>Video_Tower_XBow1</t>
+  </si>
+  <si>
+    <t>Video_Tower_XBow2</t>
+  </si>
+  <si>
+    <t>Video_Tower_XBow3</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow1_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow1_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow1_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow2_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow2_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow3_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow3_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow3_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow4_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow4_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow4_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow5_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow5_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow5_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow6_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow6_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow6_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow7_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow7_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow7_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow8_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow8_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow8_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow9_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow9_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow9_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow10_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow10_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow10_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow11_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow11_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow11_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow17_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow17_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow17_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow21_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow21_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow21_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow23_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow23_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow23_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow25_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow25_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow25_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow26_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow26_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow26_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow10_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow10_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow10_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow25_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow25_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow25_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow2_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow2_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow2_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow17_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow17_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow17_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow5_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow5_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow5_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow3_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow3_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow3_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow21_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow21_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow21_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow26_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow26_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow26_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow7_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow7_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow7_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow9_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow9_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow9_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow4_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow4_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow4_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow23_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow23_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow23_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow11_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow11_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow11_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow8_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow8_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow8_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow6_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow6_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow6_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow1_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow1_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow1_1</t>
+  </si>
+  <si>
+    <t>ResVideo_PlayerSkill_BreakArmor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResVideo_PlayerSkill_IceBind</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResVideo_PlayerSkill_TimeBarrier</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video_PlayerSkill_BreakArmor</t>
+  </si>
+  <si>
+    <t>Video_PlayerSkill_IceBind</t>
+  </si>
+  <si>
+    <t>Video_PlayerSkill_TimeBarrier</t>
+  </si>
+  <si>
+    <t>Text_Key_PlayerSkill_BreakArmor_Name</t>
+  </si>
+  <si>
+    <t>Text_Key_PlayerSkill_IceBind_Name</t>
+  </si>
+  <si>
+    <t>Text_Key_PlayerSkill_TimeBarrier_Name</t>
+  </si>
+  <si>
+    <t>Text_Key_PlayerSkill_BreakArmor_Des</t>
+  </si>
+  <si>
+    <t>Text_Key_PlayerSkill_IceBind_Des</t>
+  </si>
+  <si>
+    <t>Text_Key_PlayerSkill_TimeBarrier_Des</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerArrowSolo1</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerArrowSolo2</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerArrowSolo3</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerCanon1</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerCanon2</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerCanon3</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerFireLine1</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerFireLine2</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerFireLine3</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerDragCircle2</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerDragCircle3</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerDragon1</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerDragon2</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerDragon3</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerElec2</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerElec3</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerIce1</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerIce2</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerIce3</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerTime1</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerTime2</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerTime3</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerMagicBall1</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerMagicBall2</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerMagicBall3</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerAlchemy1</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerAlchemy2</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerAlchemy3</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerScorpio1</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerScorpio2</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerScorpio3</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerFire1</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerFire2</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerFire3</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerGoblin1</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerGoblin2</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerGoblin3</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerRocket1</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerRocket2</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerRocket3</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerBomb1</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerBomb2</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerBomb3</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerGolem1</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerGolem2</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerGolem3</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow2_1</t>
+  </si>
+  <si>
+    <t>ResIcon_PlayerSkill_BreakArmor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResIcon_PlayerSkill_IceBind</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResIcon_PlayerSkill_TimeBarrier</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +955,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -275,7 +1047,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -312,6 +1084,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -590,11 +1367,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <pane ySplit="4" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B65" sqref="B65:B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -968,7 +1745,1574 @@
         <v>ResVideo_Video_Weaken</v>
       </c>
     </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="G16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="G18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19"/>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20"/>
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E20" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21"/>
+      <c r="B21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" t="s">
+        <v>185</v>
+      </c>
+      <c r="G21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="13"/>
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="13"/>
+      <c r="B24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="13"/>
+      <c r="B25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="13"/>
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="13"/>
+      <c r="B27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="G27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="J27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="13"/>
+      <c r="B28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="J28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="13"/>
+      <c r="B29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="13"/>
+      <c r="B30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="G30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="J30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="13"/>
+      <c r="B31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="J31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="13"/>
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="13"/>
+      <c r="B33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="J33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="13"/>
+      <c r="B34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="J34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="13"/>
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="J35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="13"/>
+      <c r="B36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G36" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="J36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37"/>
+      <c r="B37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" t="s">
+        <v>179</v>
+      </c>
+      <c r="E37" t="s">
+        <v>205</v>
+      </c>
+      <c r="G37" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="J37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38"/>
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" t="s">
+        <v>180</v>
+      </c>
+      <c r="E38" t="s">
+        <v>204</v>
+      </c>
+      <c r="G38" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="J38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39"/>
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" t="s">
+        <v>181</v>
+      </c>
+      <c r="E39" t="s">
+        <v>203</v>
+      </c>
+      <c r="G39" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="J39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="13"/>
+      <c r="B40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G40" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="J40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="13"/>
+      <c r="B41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G41" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="J41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="13"/>
+      <c r="B42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="J42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="13"/>
+      <c r="B43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="G43" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="J43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="13"/>
+      <c r="B44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="G44" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="J44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="13"/>
+      <c r="B45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="G45" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="J45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="13"/>
+      <c r="B46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="G46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="13"/>
+      <c r="B47" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="G47" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="J47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="13"/>
+      <c r="B48" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="G48" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="J48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="13"/>
+      <c r="B49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="G49" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="J49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="13"/>
+      <c r="B50" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="G50" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="J50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="13"/>
+      <c r="B51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="G51" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="J51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="13"/>
+      <c r="B52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="G52" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="J52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="13"/>
+      <c r="B53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="G53" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="J53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="13"/>
+      <c r="B54" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D54"/>
+      <c r="E54" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="G54" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="J54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="13"/>
+      <c r="B55" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55"/>
+      <c r="E55" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="G55" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="J55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="13"/>
+      <c r="B56" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D56"/>
+      <c r="E56" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="G56" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="J56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="13"/>
+      <c r="B57" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57"/>
+      <c r="E57" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="G57" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="J57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="13"/>
+      <c r="B58" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D58"/>
+      <c r="E58" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="G58" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="13"/>
+      <c r="B59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D59"/>
+      <c r="E59" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G59" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="J59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="13"/>
+      <c r="B60" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60"/>
+      <c r="E60" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="G60" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="J60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="13"/>
+      <c r="B61" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61"/>
+      <c r="E61" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="G61" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="J61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="13"/>
+      <c r="B62" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62"/>
+      <c r="E62" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="G62" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="J62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="13"/>
+      <c r="B63" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D63"/>
+      <c r="E63" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="G63" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="J63" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>233</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G65" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="J65" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>234</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G66" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="J66" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>235</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G67" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="J67" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B68" s="13"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B69" s="13"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B70" s="13"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B71" s="13"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B72" s="13"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B73" s="13"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B74"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B75"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B76"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B77" s="13"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B78" s="13"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B79" s="13"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B80" s="13"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81" s="13"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B82" s="13"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83" s="13"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B84" s="13"/>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88"/>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89"/>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90"/>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91"/>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B92" s="13"/>
+      <c r="C92" s="14"/>
+      <c r="D92"/>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B93" s="13"/>
+      <c r="C93" s="14"/>
+      <c r="D93"/>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B94" s="13"/>
+      <c r="C94" s="14"/>
+      <c r="D94"/>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95"/>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96"/>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B98"/>
+      <c r="C98" s="13"/>
+      <c r="D98"/>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B99"/>
+      <c r="C99" s="13"/>
+      <c r="D99"/>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B100"/>
+      <c r="C100" s="13"/>
+      <c r="D100"/>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
+      <c r="D101"/>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+      <c r="D102"/>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B103" s="13"/>
+      <c r="C103" s="13"/>
+      <c r="D103"/>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
+      <c r="D104"/>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B105" s="13"/>
+      <c r="C105" s="13"/>
+      <c r="D105"/>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="D106"/>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+      <c r="D107"/>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108"/>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B109" s="13"/>
+      <c r="C109" s="13"/>
+      <c r="D109"/>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110"/>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
+      <c r="D111"/>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B112" s="13"/>
+      <c r="C112" s="13"/>
+      <c r="D112"/>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B113" s="13"/>
+      <c r="C113" s="13"/>
+      <c r="D113"/>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B114" s="13"/>
+      <c r="C114" s="13"/>
+      <c r="D114"/>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B115" s="13"/>
+      <c r="C115" s="13"/>
+      <c r="D115"/>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B116" s="13"/>
+      <c r="C116" s="14"/>
+      <c r="D116"/>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B117" s="13"/>
+      <c r="C117" s="14"/>
+      <c r="D117"/>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B118" s="13"/>
+      <c r="C118" s="14"/>
+      <c r="D118"/>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B119" s="13"/>
+      <c r="C119" s="13"/>
+      <c r="D119"/>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B120" s="13"/>
+      <c r="C120" s="13"/>
+      <c r="D120"/>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B121" s="13"/>
+      <c r="C121" s="13"/>
+      <c r="D121"/>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B122" s="13"/>
+      <c r="C122" s="13"/>
+      <c r="D122"/>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B123" s="13"/>
+      <c r="C123" s="13"/>
+      <c r="D123"/>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B124" s="13"/>
+      <c r="C124" s="13"/>
+      <c r="D124"/>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B125" s="13"/>
+      <c r="C125" s="13"/>
+      <c r="D125"/>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B126" s="13"/>
+      <c r="C126" s="13"/>
+      <c r="D126"/>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B127" s="13"/>
+      <c r="C127" s="13"/>
+      <c r="D127"/>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B128" s="13"/>
+      <c r="C128" s="13"/>
+      <c r="D128"/>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B129" s="13"/>
+      <c r="C129" s="13"/>
+      <c r="D129"/>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B130" s="13"/>
+      <c r="C130" s="13"/>
+      <c r="D130"/>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B131" s="13"/>
+      <c r="C131" s="13"/>
+      <c r="D131"/>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B132" s="13"/>
+      <c r="C132" s="13"/>
+      <c r="D132"/>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B133" s="13"/>
+      <c r="C133" s="13"/>
+      <c r="D133"/>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B134" s="13"/>
+      <c r="C134" s="13"/>
+      <c r="D134"/>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B135" s="13"/>
+      <c r="C135" s="13"/>
+      <c r="D135"/>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B136" s="13"/>
+      <c r="C136" s="13"/>
+      <c r="D136"/>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B137" s="13"/>
+      <c r="C137" s="14"/>
+      <c r="D137"/>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B138" s="13"/>
+      <c r="C138" s="14"/>
+      <c r="D138"/>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B139" s="13"/>
+      <c r="C139" s="14"/>
+      <c r="D139"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I16:I63">
+    <sortCondition ref="I16:I63"/>
+  </sortState>
   <mergeCells count="4">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
